--- a/medicine/Enfance/Chris_Humphreys/Chris_Humphreys.xlsx
+++ b/medicine/Enfance/Chris_Humphreys/Chris_Humphreys.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chris Humphreys, né à Toronto, au Canada, est un écrivain et acteur canadien, auteur sous la signature de C.C. Humphreys de plusieurs romans policier historiques et de fantasy.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Chris Humphreys est le petit-fils de l'acteur Cecil Humphreys (en). Il grandit à Los Angeles jusqu'à l'âge de sept ans, puis au Royaume-Uni. Il joue dans de nombreuses séries télévisées britanniques ou américaines.
 Sous la signature C.C. Humphreys, il publie en 2001 son premier roman, The French Executioner. C'est le premier volume d'une série consacrée à Jean Rombaud, un bourreau français amené en Angleterre en 1536 pour l'exécution d'Anne Boleyn.
@@ -547,16 +561,100 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans signés C. C. Humphreys
-Série Jean Rombaud
-The French Executioner (2001)
-Blood Ties (2003) (autre titre The Curse of Anne Boleyn)
-Série Jack Absolute
-Jack Absolute (2004)
+          <t>Romans signés C. C. Humphreys</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Série Jean Rombaud</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>The French Executioner (2001)
+Blood Ties (2003) (autre titre The Curse of Anne Boleyn)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Chris_Humphreys</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chris_Humphreys</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans signés C. C. Humphreys</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Série Jack Absolute</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Jack Absolute (2004)
 The Blooding of Jack Absolute (2005)
-Absolute Honor (2006)
-Autres romans
-Vlad: The Last Confession (2007)
+Absolute Honor (2006)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Chris_Humphreys</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chris_Humphreys</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans signés C. C. Humphreys</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Autres romans</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Vlad: The Last Confession (2007)
 The Hunt of the Unicorn (2011)
 A Place Called Armageddon: Constantinople 1453 (2011)
 Shakespeare’s Rebel (2013)
@@ -564,43 +662,85 @@
 The Curse of Anne Boleyn (2015)
 Fire (2016)
 The Hunt of the Dragon (2016)
-Chasing the Wind (2018)
-Romans signés Chris Humphreys
-Saga Runestone
-The Fetch (2006)
+Chasing the Wind (2018)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Chris_Humphreys</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chris_Humphreys</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Romans signés Chris Humphreys</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Saga Runestone</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>The Fetch (2006)
 Vendetta (2007)
 Possession (2008)</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Chris_Humphreys</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Chris_Humphreys</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>À la télévision
-1979 : 1 épisode de la série télévisée britannique Secret Army
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>À la télévision</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1979 : 1 épisode de la série télévisée britannique Secret Army
 1980 : 12 épisodes de la série télévisée britannique Buccaneer
 1981 : Retour au château, mini-série télévisée britannique
 1981 : 3 épisodes de la série télévisée britannique Dear Enemy
@@ -638,9 +778,43 @@
 2002 : 1 épisode de la série télévisée américano-canadienne Andromeda
 2003 : 43 épisodes de la série télévisée d'animation canadienne Gadget et les Gadgetinis (vois additionnelles)
 2013 : La Croisière mystère, téléfilm américain
-2016 : 1 épisode de la série télévisée fantastique américaine Once Upon a Time
-Au cinéma
-1989 : Scandal, film britannique réalisé par Michael Caton-Jones
+2016 : 1 épisode de la série télévisée fantastique américaine Once Upon a Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Chris_Humphreys</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chris_Humphreys</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Au cinéma</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1989 : Scandal, film britannique réalisé par Michael Caton-Jones
 2003 : Fusion, film catastrophe de science-fiction britanno-américain réalisé par Jon Amiel
 2003 : Out of Bounds, thriller psychologique britannique réalisé par Merlin Ward
 2013 : Elysium, film de science-fiction américain réalisé par Neill Blomkamp
@@ -648,36 +822,75 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Chris_Humphreys</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Chris_Humphreys</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Prix
-Prix Arthur-Ellis 2015 du meilleur roman pour Plague: Murder has a New Friend[1]
-Nomination
-Ian Fleming Steel Dagger Award 2002 pour The French Executioner[2]</t>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Prix</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Prix Arthur-Ellis 2015 du meilleur roman pour Plague: Murder has a New Friend</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Chris_Humphreys</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chris_Humphreys</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Prix et distinctions</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Nomination</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Ian Fleming Steel Dagger Award 2002 pour The French Executioner</t>
         </is>
       </c>
     </row>
